--- a/_DBDUMPS_/dumpLog.xlsx
+++ b/_DBDUMPS_/dumpLog.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4" uniqueCount="4">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="6" uniqueCount="6">
   <si>
     <t>FILENAME</t>
   </si>
@@ -26,6 +26,12 @@
   </si>
   <si>
     <t>first time dump from mysql, only contain MASTER_USER and MASTER_GROUP</t>
+  </si>
+  <si>
+    <t>Dump20160210</t>
+  </si>
+  <si>
+    <t>Added new tables (MASTER_BRANCH, MASTER_MODULE, USER_MANAGEMENT_ACCESS)</t>
   </si>
 </sst>
 </file>
@@ -76,9 +82,12 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -386,7 +395,7 @@
   <dimension ref="B4:C21"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B6" sqref="B6"/>
+      <selection activeCell="C7" sqref="C7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -412,8 +421,12 @@
       </c>
     </row>
     <row r="6" spans="2:3" x14ac:dyDescent="0.25">
-      <c r="B6" s="1"/>
-      <c r="C6" s="1"/>
+      <c r="B6" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="C6" s="2" t="s">
+        <v>5</v>
+      </c>
     </row>
     <row r="7" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B7" s="1"/>

--- a/_DBDUMPS_/dumpLog.xlsx
+++ b/_DBDUMPS_/dumpLog.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="6" uniqueCount="6">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="8" uniqueCount="8">
   <si>
     <t>FILENAME</t>
   </si>
@@ -32,6 +32,12 @@
   </si>
   <si>
     <t>Added new tables (MASTER_BRANCH, MASTER_MODULE, USER_MANAGEMENT_ACCESS)</t>
+  </si>
+  <si>
+    <t>Dump20160214</t>
+  </si>
+  <si>
+    <t>Added new tables (MASTER_CATEGORY, MASTER_UNIT)</t>
   </si>
 </sst>
 </file>
@@ -395,7 +401,7 @@
   <dimension ref="B4:C21"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C7" sqref="C7"/>
+      <selection activeCell="C8" sqref="C8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -429,8 +435,12 @@
       </c>
     </row>
     <row r="7" spans="2:3" x14ac:dyDescent="0.25">
-      <c r="B7" s="1"/>
-      <c r="C7" s="1"/>
+      <c r="B7" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="C7" s="1" t="s">
+        <v>7</v>
+      </c>
     </row>
     <row r="8" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B8" s="1"/>

--- a/_DBDUMPS_/dumpLog.xlsx
+++ b/_DBDUMPS_/dumpLog.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="8" uniqueCount="8">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="10" uniqueCount="10">
   <si>
     <t>FILENAME</t>
   </si>
@@ -38,6 +38,12 @@
   </si>
   <si>
     <t>Added new tables (MASTER_CATEGORY, MASTER_UNIT)</t>
+  </si>
+  <si>
+    <t>Dump20160214-1</t>
+  </si>
+  <si>
+    <t>Added new tables (UNIT_CONVERT)</t>
   </si>
 </sst>
 </file>
@@ -443,8 +449,12 @@
       </c>
     </row>
     <row r="8" spans="2:3" x14ac:dyDescent="0.25">
-      <c r="B8" s="1"/>
-      <c r="C8" s="1"/>
+      <c r="B8" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="C8" s="1" t="s">
+        <v>9</v>
+      </c>
     </row>
     <row r="9" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B9" s="1"/>

--- a/_DBDUMPS_/dumpLog.xlsx
+++ b/_DBDUMPS_/dumpLog.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="10" uniqueCount="10">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="12" uniqueCount="12">
   <si>
     <t>FILENAME</t>
   </si>
@@ -43,7 +43,13 @@
     <t>Dump20160214-1</t>
   </si>
   <si>
-    <t>Added new tables (UNIT_CONVERT)</t>
+    <t>Dump20160217</t>
+  </si>
+  <si>
+    <t>Added new table (UNIT_CONVERT)</t>
+  </si>
+  <si>
+    <t>Added new tables (MASTER_CUSTOMER, MASTER_SUPPLIER, MASTER_PRODUCT)</t>
   </si>
 </sst>
 </file>
@@ -407,7 +413,7 @@
   <dimension ref="B4:C21"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C8" sqref="C8"/>
+      <selection activeCell="C10" sqref="C10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -453,12 +459,16 @@
         <v>8</v>
       </c>
       <c r="C8" s="1" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="9" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B9" s="1" t="s">
         <v>9</v>
       </c>
-    </row>
-    <row r="9" spans="2:3" x14ac:dyDescent="0.25">
-      <c r="B9" s="1"/>
-      <c r="C9" s="1"/>
+      <c r="C9" s="1" t="s">
+        <v>11</v>
+      </c>
     </row>
     <row r="10" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B10" s="1"/>

--- a/_DBDUMPS_/dumpLog.xlsx
+++ b/_DBDUMPS_/dumpLog.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="12" uniqueCount="12">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="14" uniqueCount="14">
   <si>
     <t>FILENAME</t>
   </si>
@@ -50,6 +50,12 @@
   </si>
   <si>
     <t>Added new tables (MASTER_CUSTOMER, MASTER_SUPPLIER, MASTER_PRODUCT)</t>
+  </si>
+  <si>
+    <t>Dump20160217-1</t>
+  </si>
+  <si>
+    <t>Added new table (PRODUCT_CATEGORY)</t>
   </si>
 </sst>
 </file>
@@ -413,7 +419,7 @@
   <dimension ref="B4:C21"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C10" sqref="C10"/>
+      <selection activeCell="C11" sqref="C11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -471,8 +477,12 @@
       </c>
     </row>
     <row r="10" spans="2:3" x14ac:dyDescent="0.25">
-      <c r="B10" s="1"/>
-      <c r="C10" s="1"/>
+      <c r="B10" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="C10" s="1" t="s">
+        <v>13</v>
+      </c>
     </row>
     <row r="11" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B11" s="1"/>

--- a/_DBDUMPS_/dumpLog.xlsx
+++ b/_DBDUMPS_/dumpLog.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="14" uniqueCount="14">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="16" uniqueCount="16">
   <si>
     <t>FILENAME</t>
   </si>
@@ -56,6 +56,12 @@
   </si>
   <si>
     <t>Added new table (PRODUCT_CATEGORY)</t>
+  </si>
+  <si>
+    <t>Dump20160222</t>
+  </si>
+  <si>
+    <t>Added new tables (REQUEST_ORDER_HEADER, REQUEST_ORDER_DETAIL)</t>
   </si>
 </sst>
 </file>
@@ -418,7 +424,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="B4:C21"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView tabSelected="1" topLeftCell="C1" workbookViewId="0">
       <selection activeCell="C11" sqref="C11"/>
     </sheetView>
   </sheetViews>
@@ -485,8 +491,12 @@
       </c>
     </row>
     <row r="11" spans="2:3" x14ac:dyDescent="0.25">
-      <c r="B11" s="1"/>
-      <c r="C11" s="1"/>
+      <c r="B11" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="C11" s="1" t="s">
+        <v>15</v>
+      </c>
     </row>
     <row r="12" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B12" s="1"/>

--- a/_DBDUMPS_/dumpLog.xlsx
+++ b/_DBDUMPS_/dumpLog.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="16" uniqueCount="16">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="18" uniqueCount="18">
   <si>
     <t>FILENAME</t>
   </si>
@@ -62,6 +62,12 @@
   </si>
   <si>
     <t>Added new tables (REQUEST_ORDER_HEADER, REQUEST_ORDER_DETAIL)</t>
+  </si>
+  <si>
+    <t>Dump20160223</t>
+  </si>
+  <si>
+    <t>Change some fields on table</t>
   </si>
 </sst>
 </file>
@@ -424,8 +430,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="B4:C21"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="C1" workbookViewId="0">
-      <selection activeCell="C11" sqref="C11"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="C12" sqref="C12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -499,8 +505,12 @@
       </c>
     </row>
     <row r="12" spans="2:3" x14ac:dyDescent="0.25">
-      <c r="B12" s="1"/>
-      <c r="C12" s="1"/>
+      <c r="B12" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="C12" s="1" t="s">
+        <v>17</v>
+      </c>
     </row>
     <row r="13" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B13" s="1"/>

--- a/_DBDUMPS_/dumpLog.xlsx
+++ b/_DBDUMPS_/dumpLog.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="18" uniqueCount="18">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="21" uniqueCount="21">
   <si>
     <t>FILENAME</t>
   </si>
@@ -68,6 +68,15 @@
   </si>
   <si>
     <t>Change some fields on table</t>
+  </si>
+  <si>
+    <t>Dump20160224</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> </t>
+  </si>
+  <si>
+    <t>Added new table (PRODUCTS_MUTATION_HEADER, PRODUCTS_MUTATION_DETAIL)</t>
   </si>
 </sst>
 </file>
@@ -428,10 +437,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="B4:C21"/>
+  <dimension ref="A4:C21"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C12" sqref="C12"/>
+      <selection activeCell="C14" sqref="C14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -440,7 +449,7 @@
     <col min="3" max="3" width="119.140625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="4" spans="2:3" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:3" x14ac:dyDescent="0.25">
       <c r="B4" s="1" t="s">
         <v>0</v>
       </c>
@@ -448,7 +457,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="5" spans="2:3" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:3" x14ac:dyDescent="0.25">
       <c r="B5" s="1" t="s">
         <v>2</v>
       </c>
@@ -456,7 +465,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="6" spans="2:3" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:3" x14ac:dyDescent="0.25">
       <c r="B6" s="1" t="s">
         <v>4</v>
       </c>
@@ -464,7 +473,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="7" spans="2:3" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:3" x14ac:dyDescent="0.25">
       <c r="B7" s="1" t="s">
         <v>6</v>
       </c>
@@ -472,7 +481,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="8" spans="2:3" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:3" x14ac:dyDescent="0.25">
       <c r="B8" s="1" t="s">
         <v>8</v>
       </c>
@@ -480,7 +489,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="9" spans="2:3" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:3" x14ac:dyDescent="0.25">
       <c r="B9" s="1" t="s">
         <v>9</v>
       </c>
@@ -488,7 +497,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="10" spans="2:3" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:3" x14ac:dyDescent="0.25">
       <c r="B10" s="1" t="s">
         <v>12</v>
       </c>
@@ -496,7 +505,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="11" spans="2:3" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:3" x14ac:dyDescent="0.25">
       <c r="B11" s="1" t="s">
         <v>14</v>
       </c>
@@ -504,7 +513,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="12" spans="2:3" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:3" x14ac:dyDescent="0.25">
       <c r="B12" s="1" t="s">
         <v>16</v>
       </c>
@@ -512,19 +521,26 @@
         <v>17</v>
       </c>
     </row>
-    <row r="13" spans="2:3" x14ac:dyDescent="0.25">
-      <c r="B13" s="1"/>
-      <c r="C13" s="1"/>
-    </row>
-    <row r="14" spans="2:3" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A13" t="s">
+        <v>19</v>
+      </c>
+      <c r="B13" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="C13" s="1" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="14" spans="1:3" x14ac:dyDescent="0.25">
       <c r="B14" s="1"/>
       <c r="C14" s="1"/>
     </row>
-    <row r="15" spans="2:3" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:3" x14ac:dyDescent="0.25">
       <c r="B15" s="1"/>
       <c r="C15" s="1"/>
     </row>
-    <row r="16" spans="2:3" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:3" x14ac:dyDescent="0.25">
       <c r="B16" s="1"/>
       <c r="C16" s="1"/>
     </row>

--- a/_DBDUMPS_/dumpLog.xlsx
+++ b/_DBDUMPS_/dumpLog.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="21" uniqueCount="21">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="23" uniqueCount="23">
   <si>
     <t>FILENAME</t>
   </si>
@@ -77,6 +77,12 @@
   </si>
   <si>
     <t>Added new table (PRODUCTS_MUTATION_HEADER, PRODUCTS_MUTATION_DETAIL)</t>
+  </si>
+  <si>
+    <t>Dump20160301</t>
+  </si>
+  <si>
+    <t>Added new field for REQUEST_ORDER_HEADER table</t>
   </si>
 </sst>
 </file>
@@ -440,7 +446,7 @@
   <dimension ref="A4:C21"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C14" sqref="C14"/>
+      <selection activeCell="C15" sqref="C15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -533,8 +539,12 @@
       </c>
     </row>
     <row r="14" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="B14" s="1"/>
-      <c r="C14" s="1"/>
+      <c r="B14" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="C14" s="1" t="s">
+        <v>22</v>
+      </c>
     </row>
     <row r="15" spans="1:3" x14ac:dyDescent="0.25">
       <c r="B15" s="1"/>

--- a/_DBDUMPS_/dumpLog.xlsx
+++ b/_DBDUMPS_/dumpLog.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="23" uniqueCount="23">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="25" uniqueCount="25">
   <si>
     <t>FILENAME</t>
   </si>
@@ -83,6 +83,12 @@
   </si>
   <si>
     <t>Added new field for REQUEST_ORDER_HEADER table</t>
+  </si>
+  <si>
+    <t>Dump20160302</t>
+  </si>
+  <si>
+    <t>Added new tables (PRODUCTS_RECEIVED_HEADER, PRODUCTS_RECEIVED_DETAIL)</t>
   </si>
 </sst>
 </file>
@@ -445,8 +451,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A4:C21"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C15" sqref="C15"/>
+    <sheetView tabSelected="1" topLeftCell="C3" workbookViewId="0">
+      <selection activeCell="C16" sqref="C16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -547,8 +553,12 @@
       </c>
     </row>
     <row r="15" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="B15" s="1"/>
-      <c r="C15" s="1"/>
+      <c r="B15" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="C15" s="1" t="s">
+        <v>24</v>
+      </c>
     </row>
     <row r="16" spans="1:3" x14ac:dyDescent="0.25">
       <c r="B16" s="1"/>

--- a/_DBDUMPS_/dumpLog.xlsx
+++ b/_DBDUMPS_/dumpLog.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="25" uniqueCount="25">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="27" uniqueCount="27">
   <si>
     <t>FILENAME</t>
   </si>
@@ -89,6 +89,12 @@
   </si>
   <si>
     <t>Added new tables (PRODUCTS_RECEIVED_HEADER, PRODUCTS_RECEIVED_DETAIL)</t>
+  </si>
+  <si>
+    <t>Dump20160303</t>
+  </si>
+  <si>
+    <t>Added new tables (PURCHASE_HEADER, PURCHASE_DETAIL)</t>
   </si>
 </sst>
 </file>
@@ -451,8 +457,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A4:C21"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="C3" workbookViewId="0">
-      <selection activeCell="C16" sqref="C16"/>
+    <sheetView tabSelected="1" topLeftCell="A3" workbookViewId="0">
+      <selection activeCell="C17" sqref="C17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -561,8 +567,12 @@
       </c>
     </row>
     <row r="16" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="B16" s="1"/>
-      <c r="C16" s="1"/>
+      <c r="B16" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="C16" s="1" t="s">
+        <v>26</v>
+      </c>
     </row>
     <row r="17" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B17" s="1"/>

--- a/_DBDUMPS_/dumpLog.xlsx
+++ b/_DBDUMPS_/dumpLog.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="27" uniqueCount="27">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="29" uniqueCount="29">
   <si>
     <t>FILENAME</t>
   </si>
@@ -95,6 +95,12 @@
   </si>
   <si>
     <t>Added new tables (PURCHASE_HEADER, PURCHASE_DETAIL)</t>
+  </si>
+  <si>
+    <t>Dump20160304</t>
+  </si>
+  <si>
+    <t>Added new fields</t>
   </si>
 </sst>
 </file>
@@ -458,7 +464,7 @@
   <dimension ref="A4:C21"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A3" workbookViewId="0">
-      <selection activeCell="C17" sqref="C17"/>
+      <selection activeCell="C18" sqref="C18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -575,8 +581,12 @@
       </c>
     </row>
     <row r="17" spans="2:3" x14ac:dyDescent="0.25">
-      <c r="B17" s="1"/>
-      <c r="C17" s="1"/>
+      <c r="B17" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="C17" s="1" t="s">
+        <v>28</v>
+      </c>
     </row>
     <row r="18" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B18" s="1"/>

--- a/_DBDUMPS_/dumpLog.xlsx
+++ b/_DBDUMPS_/dumpLog.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="29" uniqueCount="29">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="31" uniqueCount="30">
   <si>
     <t>FILENAME</t>
   </si>
@@ -101,6 +101,9 @@
   </si>
   <si>
     <t>Added new fields</t>
+  </si>
+  <si>
+    <t>Dump20160304_OLD</t>
   </si>
 </sst>
 </file>
@@ -582,15 +585,19 @@
     </row>
     <row r="17" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B17" s="1" t="s">
-        <v>27</v>
+        <v>29</v>
       </c>
       <c r="C17" s="1" t="s">
         <v>28</v>
       </c>
     </row>
     <row r="18" spans="2:3" x14ac:dyDescent="0.25">
-      <c r="B18" s="1"/>
-      <c r="C18" s="1"/>
+      <c r="B18" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="C18" s="1" t="s">
+        <v>28</v>
+      </c>
     </row>
     <row r="19" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B19" s="1"/>

--- a/_DBDUMPS_/dumpLog.xlsx
+++ b/_DBDUMPS_/dumpLog.xlsx
@@ -1,7 +1,7 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="4" rupBuild="14420"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <fileVersion appName="xl" lastEdited="5" lowestEdited="4" rupBuild="9303"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
     <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010"/>
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="31" uniqueCount="30">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="33" uniqueCount="32">
   <si>
     <t>FILENAME</t>
   </si>
@@ -104,6 +104,12 @@
   </si>
   <si>
     <t>Dump20160304_OLD</t>
+  </si>
+  <si>
+    <t>Dump20160316</t>
+  </si>
+  <si>
+    <t>added new table account_type and modify field on master_account</t>
   </si>
 </sst>
 </file>
@@ -220,7 +226,7 @@
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Cambria" panose="020F0302020204030204"/>
+        <a:latin typeface="Cambria"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -255,7 +261,7 @@
         <a:font script="Geor" typeface="Sylfaen"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
+        <a:latin typeface="Calibri"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -467,7 +473,7 @@
   <dimension ref="A4:C21"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A3" workbookViewId="0">
-      <selection activeCell="C18" sqref="C18"/>
+      <selection activeCell="C19" sqref="C19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -600,8 +606,12 @@
       </c>
     </row>
     <row r="19" spans="2:3" x14ac:dyDescent="0.25">
-      <c r="B19" s="1"/>
-      <c r="C19" s="1"/>
+      <c r="B19" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="C19" s="1" t="s">
+        <v>31</v>
+      </c>
     </row>
     <row r="20" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B20" s="1"/>
